--- a/restoration_monitoring/data/Nursery map.xlsx
+++ b/restoration_monitoring/data/Nursery map.xlsx
@@ -3,18 +3,38 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="York_Feb 2023" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="TPB_Feb 2023" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Tags needed" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Available fragments" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="York" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="TPB" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Temp tags" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Nursery max capacity" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Gene bank" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Map for volunteers" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Tags needed" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Available fragments" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A9">
+      <text>
+        <t xml:space="preserve">Tentative - need to confirm
+	-Molly Wilson</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
   <si>
     <t>ACER03</t>
   </si>
@@ -25,10 +45,7 @@
     <t>ACER08</t>
   </si>
   <si>
-    <t>ACER GB</t>
-  </si>
-  <si>
-    <t>APRO GB</t>
+    <t>ACER + APRO GB</t>
   </si>
   <si>
     <t>APAL GB</t>
@@ -49,12 +66,21 @@
     <t>Ropes</t>
   </si>
   <si>
+    <t>APAL38</t>
+  </si>
+  <si>
+    <t>APRO03</t>
+  </si>
+  <si>
     <t>ACER06 / ACER04</t>
   </si>
   <si>
     <t>Trees</t>
   </si>
   <si>
+    <t>APRO11</t>
+  </si>
+  <si>
     <t>APRO05 / APRO01</t>
   </si>
   <si>
@@ -82,6 +108,9 @@
     <t>APAL03</t>
   </si>
   <si>
+    <t>ACER10</t>
+  </si>
+  <si>
     <t>ACER02</t>
   </si>
   <si>
@@ -97,13 +126,13 @@
     <t>APAL10</t>
   </si>
   <si>
-    <t>APAL11 / APAL16</t>
-  </si>
-  <si>
-    <t>APAL06</t>
-  </si>
-  <si>
-    <t>APAL12</t>
+    <t>APAL11</t>
+  </si>
+  <si>
+    <t>APAL06 / APAL37</t>
+  </si>
+  <si>
+    <t>APAL12 / APAL43</t>
   </si>
   <si>
     <t>APAL14</t>
@@ -112,10 +141,31 @@
     <t>APAL15 / APAL20</t>
   </si>
   <si>
-    <t>APRO03 / APRO06</t>
+    <t>APAL16</t>
+  </si>
+  <si>
+    <t>APAL 31 / APAL 34 / APAL 33</t>
+  </si>
+  <si>
+    <t>APAL35</t>
+  </si>
+  <si>
+    <t>APAL39</t>
+  </si>
+  <si>
+    <t>APAL40</t>
+  </si>
+  <si>
+    <t>APAL41</t>
   </si>
   <si>
     <t>APAL18 / APAL17</t>
+  </si>
+  <si>
+    <t>APAL42</t>
+  </si>
+  <si>
+    <t>APAL36</t>
   </si>
   <si>
     <t>APAL13 / APAL24</t>
@@ -177,104 +227,179 @@
     </r>
   </si>
   <si>
+    <t>Temp number</t>
+  </si>
+  <si>
     <t>Genotype</t>
   </si>
   <si>
+    <t>TEMP1</t>
+  </si>
+  <si>
+    <t>TEMP2</t>
+  </si>
+  <si>
+    <t>TEMP3</t>
+  </si>
+  <si>
+    <t>APAL43</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">York </t>
+  </si>
+  <si>
+    <t>TPB</t>
+  </si>
+  <si>
+    <t>Corals per structure</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Table (tiles)</t>
+  </si>
+  <si>
+    <t>Table (Microfrags)</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Grand total</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>APAL</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>GENE BANK</t>
+  </si>
+  <si>
+    <t>ROPES</t>
+  </si>
+  <si>
+    <t>Reef</t>
+  </si>
+  <si>
+    <t>TREES</t>
+  </si>
+  <si>
     <t>Tag type</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
     <t>PDIV1</t>
   </si>
   <si>
     <t>Rope</t>
   </si>
   <si>
+    <t>ACER8</t>
+  </si>
+  <si>
+    <t>APRO4</t>
+  </si>
+  <si>
+    <t>APRO10</t>
+  </si>
+  <si>
+    <t>APAL5</t>
+  </si>
+  <si>
+    <t>APAL18</t>
+  </si>
+  <si>
+    <t>APAL21</t>
+  </si>
+  <si>
+    <t>APAL22</t>
+  </si>
+  <si>
+    <t>APAL31-38</t>
+  </si>
+  <si>
+    <t>2 each</t>
+  </si>
+  <si>
     <t>APAL24</t>
   </si>
   <si>
-    <t>Tree</t>
-  </si>
-  <si>
-    <t>DB tags for TPB nursery</t>
-  </si>
-  <si>
-    <t>DB tags</t>
-  </si>
-  <si>
-    <t>Holder card for bouldering spp.?</t>
-  </si>
-  <si>
-    <t>Broodstock</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Quantity</t>
+    <t>Ten pound bay duckbill tags - A1, A2, B3, A4, B5, A6, B7, A8, B9, A10</t>
+  </si>
+  <si>
+    <t>Duckbill tag</t>
+  </si>
+  <si>
+    <t>1 each</t>
+  </si>
+  <si>
+    <t>Repeat duckbill tags for York - Columns A-F, Rows 1-8</t>
   </si>
   <si>
     <t>Fate</t>
   </si>
   <si>
-    <t>ACER2</t>
-  </si>
-  <si>
-    <t>G4</t>
+    <t>E6</t>
   </si>
   <si>
     <t>NPA</t>
   </si>
   <si>
-    <t>ACER5</t>
-  </si>
-  <si>
-    <t>E1</t>
+    <t>If no active RTL</t>
+  </si>
+  <si>
+    <t>Fill exisiting rope (F6)</t>
+  </si>
+  <si>
+    <t>B4/E2</t>
   </si>
   <si>
     <t>1/3 rope</t>
   </si>
   <si>
-    <t>Outplant at TPB</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>APAL1</t>
-  </si>
-  <si>
-    <t>Fill rope?</t>
-  </si>
-  <si>
-    <t>C6</t>
+    <t>D8</t>
   </si>
   <si>
     <t>1/3 tree</t>
   </si>
   <si>
-    <t>Outplant at York</t>
-  </si>
-  <si>
-    <t>APRO1</t>
-  </si>
-  <si>
-    <t>APRO4</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>New rope</t>
+    <t>Can take frags on mono</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -293,17 +418,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <strike/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,12 +456,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
         <bgColor rgb="FFD0E0E3"/>
       </patternFill>
@@ -346,8 +472,20 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border/>
     <border>
       <left style="thick">
@@ -401,11 +539,29 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -433,93 +589,109 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -541,6 +713,22 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -742,6 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -769,11 +958,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="42.75" customHeight="1">
@@ -784,152 +973,183 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" ht="42.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="H3" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" ht="42.75" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="18" t="s">
         <v>16</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="42.75" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="10" t="s">
-        <v>17</v>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="42.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="42.75" customHeight="1">
-      <c r="A7" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="A7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="B7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>17</v>
+      <c r="C7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="42.75" customHeight="1">
-      <c r="A8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="23"/>
+      <c r="B8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" ht="42.75" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="27"/>
+      <c r="A9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="H12" s="23"/>
     </row>
     <row r="15">
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="18">
-      <c r="L18" s="29"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19">
-      <c r="L19" s="29"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20">
-      <c r="K20" s="28"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="24">
-      <c r="K24" s="28"/>
+      <c r="K24" s="24"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -947,174 +1167,174 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="31"/>
+      <c r="A1" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" ht="37.5" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="31"/>
+      <c r="A2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" ht="37.5" customHeight="1">
-      <c r="A3" s="31"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="37.5" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="31"/>
+        <v>25</v>
+      </c>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="31"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="37.5" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="27"/>
     </row>
     <row r="7" ht="37.5" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="10" t="s">
-        <v>36</v>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="37.5" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="31"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="27"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="37.5" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="31"/>
+        <v>48</v>
+      </c>
+      <c r="B10" s="27"/>
     </row>
     <row r="11" ht="45.75" customHeight="1">
-      <c r="A11" s="31"/>
+      <c r="A11" s="27"/>
     </row>
     <row r="12">
-      <c r="A12" s="32" t="s">
-        <v>39</v>
+      <c r="A12" s="29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>44</v>
+      <c r="A13" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>44</v>
+      <c r="A14" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="32" t="s">
-        <v>46</v>
+      <c r="A16" s="29" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="25">
-      <c r="A25" s="32" t="s">
-        <v>47</v>
+      <c r="A25" s="29" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="32" t="s">
-        <v>48</v>
+      <c r="A26" s="29" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1131,72 +1351,37 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="25.75"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="A1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>52</v>
+      <c r="A2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>54</v>
+      <c r="A3" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>58</v>
+      <c r="A4" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1213,192 +1398,685 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="19.63"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>61</v>
+      <c r="A1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="36">
-        <v>15.0</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>64</v>
+      <c r="A2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29">
+        <v>31.0</v>
+      </c>
+      <c r="C2" s="29">
+        <v>8.0</v>
+      </c>
+      <c r="D2" s="29">
+        <v>40.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
+      <c r="A3" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="29">
+        <v>21.0</v>
+      </c>
+      <c r="C3" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="29">
+        <v>72.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="36">
-        <v>30.0</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>64</v>
+      <c r="A4" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="29">
+        <v>150.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="36">
-        <v>10.0</v>
-      </c>
-      <c r="D5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>71</v>
       </c>
+      <c r="B5" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="32">
+        <f>(66*6)+(20*3)</f>
+        <v>456</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="32">
+        <f>(B2*D2)+(B3*D3)+(B4*D4)+(B5*D5)</f>
+        <v>2752</v>
+      </c>
+      <c r="C6" s="32">
+        <f>(C2*D2)+(C3*D3)+(C4*D4)+(C5*D5)</f>
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="36">
-        <v>20.0</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="36">
-        <v>30.0</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>79</v>
+      <c r="B7" s="33">
+        <f>SUM(B6:C6)</f>
+        <v>4278</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="4.38"/>
+    <col customWidth="1" min="2" max="7" width="8.25"/>
+    <col customWidth="1" min="8" max="8" width="10.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" ht="42.0" customHeight="1">
+      <c r="A2" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" ht="42.0" customHeight="1">
+      <c r="A3" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" ht="42.0" customHeight="1">
+      <c r="A4" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" ht="42.0" customHeight="1">
+      <c r="A5" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="I5" s="40"/>
+    </row>
+    <row r="6" ht="42.0" customHeight="1">
+      <c r="A6" s="36">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" ht="42.0" customHeight="1">
+      <c r="A7" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" ht="42.0" customHeight="1">
+      <c r="A8" s="36">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" ht="42.0" customHeight="1">
+      <c r="A9" s="36">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" ht="42.0" customHeight="1">
+      <c r="A10" s="36">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="38"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="34"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="34"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="34"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="34"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H8:H10"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="25.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="45">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="45">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="45">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="45">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="45">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="45">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="45">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="45">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="45">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="45">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="16.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="45">
+        <v>15.0</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="45">
+        <v>30.0</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="45">
+        <v>10.0</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="45">
+        <v>20.0</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>